--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PST\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3275AC03-EF36-4096-A63F-1C4CBB5A95BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB98F0-7921-4522-9F48-A3CC34999770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="190" windowWidth="11420" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1545" workbookViewId="0">
-      <selection activeCell="F1198" sqref="F1198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1507" sqref="B1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30503,7 +30503,7 @@
         <v>10</v>
       </c>
       <c r="B1507">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1507">
         <v>0.5</v>
